--- a/src/testData/ROIColleagueData.xlsx
+++ b/src/testData/ROIColleagueData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\INE12400939\Downloads\git clone\HireAColleague\src\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FCA7BAA-AEEA-4B5D-8EB8-696659C60114}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B30B2A9-B683-471B-AD5E-E4C05C300C61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -122,13 +122,13 @@
     <t>test15500482@tesco.com</t>
   </si>
   <si>
-    <t>Simran</t>
-  </si>
-  <si>
-    <t>Kul</t>
-  </si>
-  <si>
-    <t>4566017L</t>
+    <t>Lam</t>
+  </si>
+  <si>
+    <t>Singh</t>
+  </si>
+  <si>
+    <t>4566018N</t>
   </si>
 </sst>
 </file>
@@ -461,7 +461,7 @@
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -534,7 +534,7 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>15500497</v>
+        <v>15500519</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -573,7 +573,7 @@
         <v>22</v>
       </c>
       <c r="N2" s="1">
-        <v>45299</v>
+        <v>45713</v>
       </c>
       <c r="O2" s="1" t="s">
         <v>23</v>
